--- a/HLS_man/COP21/COP21_man_bosnia_herz.xlsx
+++ b/HLS_man/COP21/COP21_man_bosnia_herz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EF8C02-E475-4199-801B-ED2DCDA3F634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3282C68-852E-4AE5-AE66-E773B0BD7B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,28 +172,28 @@
     <t>adaptation, mitigation</t>
   </si>
   <si>
-    <t>other(support)</t>
-  </si>
-  <si>
     <t>regional</t>
   </si>
   <si>
     <t>prioritarian</t>
   </si>
   <si>
-    <t>Indicating the need for support presented by a developed country.</t>
-  </si>
-  <si>
     <t>allign with EU</t>
   </si>
   <si>
-    <t>binding (sufficientarian), common and shared responsiblity to take on action on emission reduction (egalitarian), redefinition of relationship between developed and developing, indicating a prioritarian principle.</t>
-  </si>
-  <si>
-    <t>sufficientarian, egalitarian, prioritarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For the benefit of all (reaching the common goal), support of the international community is neccessary. Thus utilitarain principle. </t>
+    <t xml:space="preserve">Prescribing the need to take on action for the benefit of all. </t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicating the need for support presented by a developed country to help worse off. </t>
+  </si>
+  <si>
+    <t>egalitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the need for fair policy with clear distrinction and defined relations, mentioning shared responsilibity. </t>
   </si>
 </sst>
 </file>
@@ -565,16 +565,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -642,10 +642,10 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -653,7 +653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -664,25 +664,25 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -698,7 +698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -714,7 +714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -737,10 +737,10 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -748,7 +748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>

--- a/HLS_man/COP21/COP21_man_bosnia_herz.xlsx
+++ b/HLS_man/COP21/COP21_man_bosnia_herz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3282C68-852E-4AE5-AE66-E773B0BD7B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00225A3-2A24-4B3B-B3AC-A29B95870580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>COP21_bosnia_herz</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -143,25 +137,7 @@
 </t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>utilitarian</t>
   </si>
   <si>
     <t>We hope that, with the full support of the international
@@ -172,28 +148,34 @@
     <t>adaptation, mitigation</t>
   </si>
   <si>
-    <t>regional</t>
-  </si>
-  <si>
     <t>prioritarian</t>
   </si>
   <si>
     <t>allign with EU</t>
   </si>
   <si>
-    <t xml:space="preserve">Prescribing the need to take on action for the benefit of all. </t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicating the need for support presented by a developed country to help worse off. </t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t xml:space="preserve">Prescribing the need for fair policy with clear distrinction and defined relations, mentioning shared responsilibity. </t>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicating the need for support as a vulnerable country, following a prioritarian motivation. </t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the need for fair policy with clear distrinction and defined relations, mentioning shared responsilibity in the distribution as well as common measures. </t>
   </si>
 </sst>
 </file>
@@ -563,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +556,7 @@
     <col min="1" max="1" width="36.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,172 +570,145 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
